--- a/реестр КП (тер схема)_small.xlsx
+++ b/реестр КП (тер схема)_small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.belov/Programming/python/mag_delivery_py/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\mag_delivery_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642875A-69E7-5A47-B67D-7F79AC18E710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1494202B-496B-4D80-A486-F2091890211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{A05ED8B0-FD82-43B8-B81E-7528579335C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A05ED8B0-FD82-43B8-B81E-7528579335C3}"/>
   </bookViews>
   <sheets>
     <sheet name="КП" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>№ п\п</t>
   </si>
@@ -447,9 +447,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -487,7 +487,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -593,7 +593,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -735,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,24 +746,24 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" customWidth="1"/>
     <col min="8" max="8" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -837,7 +837,7 @@
         <v>3.326170234502706E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1.663085117251353E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -909,7 +909,7 @@
         <v>1.663085117251353E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -928,15 +928,15 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="8">
-        <v>1.1000000000000001</v>
+      <c r="H5" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>6.6523404690054119E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -964,21 +964,21 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="8">
-        <v>1.1000000000000001</v>
+      <c r="H6" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>1.663085117251353E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1066,15 +1066,15 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="8">
-        <v>1.1000000000000001</v>
+      <c r="H9" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0.16630851172513528</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1134,18 +1134,18 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="34" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1325,13 +1325,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>72</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>76</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>79</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>80</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>78</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>71</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>74</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>73</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>67</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>77</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>44</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>87</v>
       </c>
